--- a/账单.xlsx
+++ b/账单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="10215" yWindow="360" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>日期</t>
   </si>
@@ -121,19 +121,73 @@
   </si>
   <si>
     <t>沃尔玛采购</t>
+  </si>
+  <si>
+    <t>菜单，招牌</t>
+  </si>
+  <si>
+    <t>采购插板，拖把</t>
+  </si>
+  <si>
+    <t>芙蓉王2条，利群2条</t>
+  </si>
+  <si>
+    <t>手工面，扯面</t>
+  </si>
+  <si>
+    <t>手工面30元，扯面150元</t>
+  </si>
+  <si>
+    <t>退电压力锅</t>
+  </si>
+  <si>
+    <t>食品保证金</t>
+  </si>
+  <si>
+    <t>工服一套</t>
+  </si>
+  <si>
+    <t>货架</t>
+  </si>
+  <si>
+    <t>厨房改造</t>
+  </si>
+  <si>
+    <t>购买电磁炉</t>
+  </si>
+  <si>
+    <t>关中源供货</t>
+  </si>
+  <si>
+    <t>意向金抵扣5000元，付款246元</t>
+  </si>
+  <si>
+    <t>办营业执照框，购买搅蒜器，配钥匙</t>
+  </si>
+  <si>
+    <t>四格保温汤池</t>
+  </si>
+  <si>
+    <t>细面，饮料</t>
+  </si>
+  <si>
+    <t>定制工服</t>
+  </si>
+  <si>
+    <t>木屋烧烤</t>
+  </si>
+  <si>
+    <t>微波炉，克秤</t>
+  </si>
+  <si>
+    <t>打印纸</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,345 +196,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -488,251 +218,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -747,57 +235,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1088,19 +529,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1"/>
     <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
@@ -1123,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>43552</v>
       </c>
@@ -1134,7 +575,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>43552</v>
       </c>
@@ -1145,7 +586,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>43552</v>
       </c>
@@ -1156,7 +597,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>43554</v>
       </c>
@@ -1167,7 +608,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>43554</v>
       </c>
@@ -1178,7 +619,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>43554</v>
       </c>
@@ -1189,7 +630,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>43554</v>
       </c>
@@ -1200,7 +641,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>43555</v>
       </c>
@@ -1211,7 +652,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>43560</v>
       </c>
@@ -1222,7 +663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>43561</v>
       </c>
@@ -1233,7 +674,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>43562</v>
       </c>
@@ -1244,7 +685,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>43562</v>
       </c>
@@ -1367,7 +808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>43568</v>
       </c>
@@ -1378,7 +819,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>43569</v>
       </c>
@@ -1389,54 +830,250 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>43569</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>43569</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>570</v>
       </c>
     </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1">
+        <v>556</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1">
+        <v>836</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1">
+        <v>180</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-1588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>43571</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>43571</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>43571</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>43571</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
+        <v>43572</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1">
+        <v>246</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>43572</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
+        <v>43572</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
+        <v>43573</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
+        <v>43573</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
+        <v>43573</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
+        <v>43574</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
+        <v>43574</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1">
+        <v>167.9</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>